--- a/Birdedex_Rework.xlsx
+++ b/Birdedex_Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robbiechristian/Documents/Programming/Birdedex/Birdedex_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711906D-DB74-B84A-9418-8B25413DB38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB426026-965E-3549-91D4-94AB408A49E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27950,7 +27950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A827" zoomScale="118" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A791" zoomScale="118" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A852"/>
     </sheetView>
   </sheetViews>
